--- a/src/utils/spreadsheets/week 2.xlsx
+++ b/src/utils/spreadsheets/week 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordy\pick-em-1\src\utils\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordyfigueroa/Desktop/pick-em/src/utils/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{019C4715-9786-4DE1-AFA3-2955B8D7DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8283092F-DD72-8E45-B1AC-86A27D13E76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0373E48D-B0E4-4717-A547-A59FB87368C6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{0373E48D-B0E4-4717-A547-A59FB87368C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Table001 (Page 1)" sheetId="2" r:id="rId1"/>
@@ -341,10 +341,10 @@
     <t>DONTE</t>
   </si>
   <si>
-    <t>ANN/TERRI</t>
-  </si>
-  <si>
     <t>130</t>
+  </si>
+  <si>
+    <t>ANN TERRI</t>
   </si>
 </sst>
 </file>
@@ -380,9 +380,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,22 +491,22 @@
   <tableColumns count="18">
     <tableColumn id="3" xr3:uid="{5122F89E-34BE-44BD-BACE-0C4358A29163}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="17"/>
     <tableColumn id="4" xr3:uid="{19BFA8C4-C73F-4A6B-ADB6-543BAA8FAC26}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{899C5A93-328B-44B7-8304-4144193FE82A}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5B3EFB80-1B04-45F0-BBA4-2F2EF4EDB030}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{20720CC7-8C04-4F1F-BCBA-9F7A4D1B2B82}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{BC8EF9F4-0892-4ECF-86CC-97816A01AB9E}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{58C81722-518A-442D-9479-57F3D987597D}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{D9FA31CF-6DEE-4E19-A70F-4325E2A2A3F8}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{7EAEE284-3D16-4F18-A800-7964B05F20FA}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{6096E472-D624-4CB0-8060-E6C8109B345A}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{EFA67F58-A4A6-4CAF-8C22-B5CF95A5A436}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{5BA33920-B55B-4B9A-958C-80C6D57DF988}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{BCAABF59-4063-4EBE-9134-2E4ED194A94B}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{89E27DAC-8585-497F-B269-1897C35DDAD9}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{8C09FAB0-385E-4415-AC23-9E47ABC68DF7}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{966552EA-5DA4-4918-BD43-F8297C0F7E5A}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{C991D753-46AB-4EC1-BF7C-554D31E94B0D}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="7"/>
-    <tableColumn id="20" xr3:uid="{84139620-D6AF-4237-A352-0B8D3E26687A}" uniqueName="20" name="Column20" queryTableFieldId="20" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{899C5A93-328B-44B7-8304-4144193FE82A}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{5B3EFB80-1B04-45F0-BBA4-2F2EF4EDB030}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{20720CC7-8C04-4F1F-BCBA-9F7A4D1B2B82}" uniqueName="11" name="Column11" queryTableFieldId="11" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{BC8EF9F4-0892-4ECF-86CC-97816A01AB9E}" uniqueName="8" name="Column8" queryTableFieldId="8" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{58C81722-518A-442D-9479-57F3D987597D}" uniqueName="9" name="Column9" queryTableFieldId="9" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{D9FA31CF-6DEE-4E19-A70F-4325E2A2A3F8}" uniqueName="12" name="Column12" queryTableFieldId="12" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{7EAEE284-3D16-4F18-A800-7964B05F20FA}" uniqueName="10" name="Column10" queryTableFieldId="10" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{6096E472-D624-4CB0-8060-E6C8109B345A}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{EFA67F58-A4A6-4CAF-8C22-B5CF95A5A436}" uniqueName="13" name="Column13" queryTableFieldId="13" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{5BA33920-B55B-4B9A-958C-80C6D57DF988}" uniqueName="14" name="Column14" queryTableFieldId="14" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{BCAABF59-4063-4EBE-9134-2E4ED194A94B}" uniqueName="15" name="Column15" queryTableFieldId="15" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{89E27DAC-8585-497F-B269-1897C35DDAD9}" uniqueName="16" name="Column16" queryTableFieldId="16" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{8C09FAB0-385E-4415-AC23-9E47ABC68DF7}" uniqueName="17" name="Column17" queryTableFieldId="17" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{966552EA-5DA4-4918-BD43-F8297C0F7E5A}" uniqueName="18" name="Column18" queryTableFieldId="18" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{C991D753-46AB-4EC1-BF7C-554D31E94B0D}" uniqueName="19" name="Column19" queryTableFieldId="19" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{84139620-D6AF-4237-A352-0B8D3E26687A}" uniqueName="20" name="Column20" queryTableFieldId="20" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -813,25 +812,25 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -887,1572 +886,1572 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="M6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>31</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>32</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" t="s">
         <v>47</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
         <v>31</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>27</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" t="s">
         <v>33</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>31</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>33</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>27</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="1" t="s">
+      <c r="M22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>27</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="1" t="s">
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" t="s">
         <v>47</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" t="s">
         <v>32</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="1" t="s">
+      <c r="M24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
         <v>31</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" t="s">
         <v>32</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" t="s">
         <v>21</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>27</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" t="s">
         <v>28</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N25" s="1" t="s">
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" t="s">
         <v>48</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" t="s">
         <v>33</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" t="s">
         <v>31</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" t="s">
         <v>32</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" t="s">
         <v>33</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" t="s">
         <v>28</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="1" t="s">
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" t="s">
         <v>31</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" t="s">
         <v>33</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>27</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
         <v>28</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
         <v>31</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" t="s">
         <v>32</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" t="s">
         <v>49</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+      <c r="R29" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
